--- a/Fabrication/BOM for ESP32 MEGA.xlsx
+++ b/Fabrication/BOM for ESP32 MEGA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28652\Desktop\ESP32 MEGA\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanh\Desktop\Workspace\小项目\ESP32 MEGA\Fabrication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1822D4A-C075-4AFC-945A-E848F7709A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D14B94-ECAE-47C8-A577-9993EBC1985A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A3A7544-DD9C-47DC-943E-4EBFECCF7ED8}"/>
+    <workbookView xWindow="3000" yWindow="2700" windowWidth="21600" windowHeight="12780" xr2:uid="{3A3A7544-DD9C-47DC-943E-4EBFECCF7ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32 MEGA" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
   <si>
     <t>Designator</t>
   </si>
@@ -131,9 +129,6 @@
     <t>LED_0603</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Connector_8P</t>
   </si>
   <si>
@@ -233,224 +228,222 @@
     <t>R9, R10, R11, R12, R13</t>
   </si>
   <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+  </si>
+  <si>
+    <t>1117_3V3</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOT-223</t>
+  </si>
+  <si>
+    <t>CH340K</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>ESOP-10</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>NOR FLASH</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>USB1</t>
+  </si>
+  <si>
+    <t>USB_4P</t>
+  </si>
+  <si>
+    <t>USB2</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X_SMD3225</t>
+  </si>
+  <si>
+    <t>ANT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrossAir_CAC03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片天线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钽电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC 电源接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC005 5.5*2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connector_14P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JP13, JP14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻触开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直插, 6*6*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54mm_8P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54mm_10P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54mm_14P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排母8P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排针8P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排母10P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排针10P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排母14P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电阻</t>
+  </si>
+  <si>
+    <t>贴片电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降压DC/DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDO to 3V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB-UART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP32-S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP32-S3R8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFN-56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOIC-8-208mil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W25Q128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB母座，TYPEC，16P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_TYPEC_16P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_TYPEB_4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB母座, TYPEB, 4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶振, 4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MT2492</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOT-23-6</t>
-  </si>
-  <si>
-    <t>1117_3V3</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SOT-223</t>
-  </si>
-  <si>
-    <t>CH340K</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>ESOP-10</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>NOR FLASH</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>USB1</t>
-  </si>
-  <si>
-    <t>USB_4P</t>
-  </si>
-  <si>
-    <t>USB2</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X_SMD3225</t>
-  </si>
-  <si>
-    <t>ANT1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CrossAir_CAC03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片天线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钽电容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC 电源接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC005 5.5*2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发光二极管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Connector_14P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JP13, JP14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻触开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直插, 6*6*5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.54mm_8P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.54mm_10P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.54mm_14P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排母8P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排针8P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排母10P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排针10P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排母14P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电阻</t>
-  </si>
-  <si>
-    <t>贴片电阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降压DC/DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDO to 3V3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB-UART</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESP32-S3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESP32-S3R8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QFN-56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOIC-8-208mil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W25Q128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB母座，TYPEC，16P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_TYPEC_16P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'USB_TYPEC_16P</t>
-  </si>
-  <si>
-    <t>USB_TYPEB_4P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB母座, TYPEB, 4P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶振, 4P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,8 +846,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -866,10 +859,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -883,30 +876,30 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -917,7 +910,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -934,7 +927,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -951,7 +944,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -968,7 +961,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -985,7 +978,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -1002,7 +995,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -1019,7 +1012,7 @@
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
@@ -1036,7 +1029,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>21</v>
@@ -1056,10 +1049,10 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1073,7 +1066,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -1087,10 +1080,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
@@ -1104,410 +1097,410 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" s="4">
         <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16" s="4">
         <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="4">
         <v>5</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D31" s="4">
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D32" s="4">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D34" s="4">
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
